--- a/top_league_soccer/Excel/dados_premier.xlsx
+++ b/top_league_soccer/Excel/dados_premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
   <si>
     <t>#</t>
   </si>
@@ -139,18 +139,18 @@
     <t>Brentford</t>
   </si>
   <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
     <t>Nottingham</t>
   </si>
   <si>
-    <t>Crystal Palace</t>
+    <t>Everton</t>
   </si>
   <si>
     <t>Luton</t>
   </si>
   <si>
-    <t>Everton</t>
-  </si>
-  <si>
     <t>Burnley</t>
   </si>
   <si>
@@ -235,10 +235,13 @@
     <t>4.8</t>
   </si>
   <si>
+    <t>4.6</t>
+  </si>
+  <si>
     <t>3.8</t>
   </si>
   <si>
-    <t>4.5</t>
+    <t>4.7</t>
   </si>
   <si>
     <t>5.6</t>
@@ -277,42 +280,36 @@
     <t>87%</t>
   </si>
   <si>
-    <t>79%</t>
-  </si>
-  <si>
     <t>83%</t>
   </si>
   <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
     <t>71%</t>
   </si>
   <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
     <t>3.32</t>
   </si>
   <si>
@@ -349,16 +346,16 @@
     <t>3.25</t>
   </si>
   <si>
+    <t>2.88</t>
+  </si>
+  <si>
     <t>3.04</t>
   </si>
   <si>
-    <t>2.92</t>
+    <t>2.40</t>
   </si>
   <si>
     <t>3.38</t>
-  </si>
-  <si>
-    <t>2.42</t>
   </si>
   <si>
     <t>3.48</t>
@@ -762,13 +759,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -785,13 +782,13 @@
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -808,13 +805,13 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -831,13 +828,13 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -854,13 +851,13 @@
         <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -877,13 +874,13 @@
         <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -900,13 +897,13 @@
         <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -923,13 +920,13 @@
         <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -946,13 +943,13 @@
         <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -969,13 +966,13 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -992,13 +989,13 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1015,13 +1012,13 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1038,13 +1035,13 @@
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1061,13 +1058,13 @@
         <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1078,19 +1075,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
         <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1101,19 +1098,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1124,19 +1121,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1147,19 +1144,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1176,13 +1173,13 @@
         <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1196,16 +1193,16 @@
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_premier.xlsx
+++ b/top_league_soccer/Excel/dados_premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
   <si>
     <t>#</t>
   </si>
@@ -100,12 +100,12 @@
     <t>Liverpool</t>
   </si>
   <si>
+    <t>Man City</t>
+  </si>
+  <si>
     <t>Arsenal</t>
   </si>
   <si>
-    <t>Man City</t>
-  </si>
-  <si>
     <t>Aston Villa</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>2.0</t>
   </si>
   <si>
+    <t>1.7</t>
+  </si>
+  <si>
     <t>1.6</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
     <t>2.7</t>
   </si>
   <si>
@@ -190,21 +190,18 @@
     <t>1.9</t>
   </si>
   <si>
-    <t>1.8</t>
-  </si>
-  <si>
     <t>3.0</t>
   </si>
   <si>
-    <t>6.6</t>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>7.7</t>
   </si>
   <si>
     <t>7.5</t>
   </si>
   <si>
-    <t>7.6</t>
-  </si>
-  <si>
     <t>6.2</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>5.4</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
     <t>4.6</t>
   </si>
   <si>
@@ -253,87 +247,87 @@
     <t>96%</t>
   </si>
   <si>
+    <t>84%</t>
+  </si>
+  <si>
     <t>77%</t>
   </si>
   <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
     <t>88%</t>
   </si>
   <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>87%</t>
-  </si>
-  <si>
-    <t>83%</t>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>64%</t>
   </si>
   <si>
     <t>68%</t>
   </si>
   <si>
-    <t>64%</t>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>70%</t>
   </si>
   <si>
     <t>67%</t>
   </si>
   <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
     <t>56%</t>
   </si>
   <si>
     <t>48%</t>
   </si>
   <si>
-    <t>71%</t>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>3.76</t>
   </si>
   <si>
     <t>3.32</t>
   </si>
   <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>2.76</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>3.76</t>
-  </si>
-  <si>
     <t>3.16</t>
   </si>
   <si>
@@ -343,9 +337,6 @@
     <t>3.29</t>
   </si>
   <si>
-    <t>3.25</t>
-  </si>
-  <si>
     <t>2.88</t>
   </si>
   <si>
@@ -355,7 +346,7 @@
     <t>2.40</t>
   </si>
   <si>
-    <t>3.38</t>
+    <t>3.44</t>
   </si>
   <si>
     <t>3.48</t>
@@ -756,16 +747,16 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -779,16 +770,16 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -802,16 +793,16 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -825,16 +816,16 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -848,16 +839,16 @@
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -871,16 +862,16 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -894,16 +885,16 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -917,16 +908,16 @@
         <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -940,16 +931,16 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -963,16 +954,16 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -986,16 +977,16 @@
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1009,16 +1000,16 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1032,16 +1023,16 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1055,16 +1046,16 @@
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1078,16 +1069,16 @@
         <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1101,16 +1092,16 @@
         <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1124,16 +1115,16 @@
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1144,19 +1135,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1170,16 +1161,16 @@
         <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1190,19 +1181,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_premier.xlsx
+++ b/top_league_soccer/Excel/dados_premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
   <si>
     <t>#</t>
   </si>
@@ -115,39 +115,39 @@
     <t>Manchester United</t>
   </si>
   <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
     <t>Brighton</t>
   </si>
   <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>West Ham</t>
+    <t>Wolves</t>
   </si>
   <si>
     <t>Chelsea</t>
   </si>
   <si>
-    <t>Wolves</t>
-  </si>
-  <si>
     <t>Fulham</t>
   </si>
   <si>
     <t>Bournemouth</t>
   </si>
   <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
     <t>Brentford</t>
   </si>
   <si>
-    <t>Crystal Palace</t>
+    <t>Everton</t>
   </si>
   <si>
     <t>Nottingham</t>
   </si>
   <si>
-    <t>Everton</t>
-  </si>
-  <si>
     <t>Luton</t>
   </si>
   <si>
@@ -160,193 +160,196 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
     <t>1.6</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
     <t>2.7</t>
   </si>
   <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
     <t>2.3</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
     <t>1.9</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>7.5</t>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>7.6</t>
   </si>
   <si>
     <t>6.2</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
     <t>6.3</t>
   </si>
   <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>4.2</t>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>5.7</t>
   </si>
   <si>
     <t>5.0</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
     <t>3.3</t>
   </si>
   <si>
+    <t>93%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
     <t>96%</t>
   </si>
   <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
     <t>84%</t>
   </si>
   <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>92%</t>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>63%</t>
   </si>
   <si>
     <t>80%</t>
   </si>
   <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>65%</t>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>61%</t>
   </si>
   <si>
     <t>64%</t>
   </si>
   <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>60%</t>
+    <t>59%</t>
   </si>
   <si>
     <t>70%</t>
   </si>
   <si>
-    <t>67%</t>
+    <t>48%</t>
   </si>
   <si>
     <t>56%</t>
   </si>
   <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>3.38</t>
-  </si>
-  <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>2.76</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>3.76</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>3.16</t>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>3.62</t>
+  </si>
+  <si>
+    <t>2.81</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>3.35</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>3.29</t>
-  </si>
-  <si>
-    <t>2.88</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>3.44</t>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>3.50</t>
   </si>
   <si>
     <t>3.48</t>
@@ -747,16 +750,16 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -770,16 +773,16 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -793,16 +796,16 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -816,16 +819,16 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -839,16 +842,16 @@
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -859,19 +862,19 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -882,19 +885,19 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -905,19 +908,19 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="s">
         <v>81</v>
       </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -928,19 +931,19 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
         <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -951,19 +954,19 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -974,19 +977,19 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -997,19 +1000,19 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1023,16 +1026,16 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
         <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1046,7 +1049,7 @@
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>77</v>
@@ -1055,7 +1058,7 @@
         <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1066,19 +1069,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
         <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1089,19 +1092,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1112,19 +1115,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1135,19 +1138,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1161,16 +1164,16 @@
         <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1181,19 +1184,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_premier.xlsx
+++ b/top_league_soccer/Excel/dados_premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
   <si>
     <t>#</t>
   </si>
@@ -97,15 +97,15 @@
     <t>20.</t>
   </si>
   <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
     <t>Liverpool</t>
   </si>
   <si>
     <t>Man City</t>
   </si>
   <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
     <t>Aston Villa</t>
   </si>
   <si>
@@ -118,15 +118,15 @@
     <t>West Ham</t>
   </si>
   <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
     <t>Newcastle</t>
   </si>
   <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Wolves</t>
-  </si>
-  <si>
     <t>Chelsea</t>
   </si>
   <si>
@@ -157,202 +157,181 @@
     <t>Sheffield Utd</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
     <t>2.9</t>
   </si>
   <si>
+    <t>7.6</t>
+  </si>
+  <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>7.6</t>
+    <t>7.8</t>
   </si>
   <si>
     <t>6.2</t>
   </si>
   <si>
+    <t>6.1</t>
+  </si>
+  <si>
     <t>6.3</t>
   </si>
   <si>
     <t>4.1</t>
   </si>
   <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
     <t>4.6</t>
   </si>
   <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>5.1</t>
+    <t>4.9</t>
   </si>
   <si>
     <t>5.4</t>
   </si>
   <si>
-    <t>5.9</t>
+    <t>4.5</t>
   </si>
   <si>
     <t>4.7</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>3.7</t>
   </si>
   <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
     <t>3.3</t>
   </si>
   <si>
+    <t>79%</t>
+  </si>
+  <si>
     <t>93%</t>
   </si>
   <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
     <t>81%</t>
   </si>
   <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>89%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
     <t>63%</t>
   </si>
   <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>66%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>59%</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>3.37</t>
-  </si>
-  <si>
-    <t>3.56</t>
-  </si>
-  <si>
-    <t>3.62</t>
-  </si>
-  <si>
-    <t>2.81</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>3.78</t>
-  </si>
-  <si>
-    <t>3.44</t>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>2.79</t>
   </si>
   <si>
     <t>3.07</t>
   </si>
   <si>
-    <t>3.35</t>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>3.41</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>2.93</t>
-  </si>
-  <si>
-    <t>2.44</t>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>3.18</t>
   </si>
   <si>
     <t>3.50</t>
-  </si>
-  <si>
-    <t>3.48</t>
   </si>
 </sst>
 </file>
@@ -753,13 +732,13 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -776,13 +755,13 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -799,13 +778,13 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -822,13 +801,13 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
         <v>79</v>
       </c>
-      <c r="F5" t="s">
-        <v>81</v>
-      </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -842,16 +821,16 @@
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -865,16 +844,16 @@
         <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -888,16 +867,16 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
         <v>82</v>
       </c>
-      <c r="F8" t="s">
-        <v>89</v>
-      </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -911,16 +890,16 @@
         <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
         <v>83</v>
       </c>
-      <c r="F9" t="s">
-        <v>81</v>
-      </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -931,19 +910,19 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -957,16 +936,16 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -980,16 +959,16 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1003,16 +982,16 @@
         <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1023,19 +1002,19 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
         <v>82</v>
       </c>
-      <c r="F14" t="s">
-        <v>91</v>
-      </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1046,19 +1025,19 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1072,16 +1051,16 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1092,19 +1071,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1115,19 +1094,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1138,19 +1117,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1161,19 +1140,19 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1187,16 +1166,16 @@
         <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_premier.xlsx
+++ b/top_league_soccer/Excel/dados_premier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="120">
   <si>
     <t>#</t>
   </si>
@@ -112,24 +112,24 @@
     <t>Tottenham</t>
   </si>
   <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
     <t>Manchester United</t>
   </si>
   <si>
     <t>West Ham</t>
   </si>
   <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
     <t>Brighton</t>
   </si>
   <si>
     <t>Wolves</t>
   </si>
   <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
     <t>Fulham</t>
   </si>
   <si>
@@ -157,181 +157,223 @@
     <t>Sheffield Utd</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.1</t>
   </si>
   <si>
     <t>1.9</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>7.6</t>
+    <t>2.8</t>
   </si>
   <si>
     <t>7.0</t>
   </si>
   <si>
+    <t>7.4</t>
+  </si>
+  <si>
     <t>7.8</t>
   </si>
   <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
     <t>6.2</t>
   </si>
   <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>4.6</t>
   </si>
   <si>
-    <t>4.9</t>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
   </si>
   <si>
     <t>5.4</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>3.3</t>
+    <t>3.6</t>
   </si>
   <si>
     <t>79%</t>
   </si>
   <si>
-    <t>93%</t>
-  </si>
-  <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>89%</t>
+    <t>91%</t>
+  </si>
+  <si>
+    <t>81%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>94%</t>
+  </si>
+  <si>
+    <t>87%</t>
   </si>
   <si>
     <t>85%</t>
   </si>
   <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
     <t>68%</t>
   </si>
   <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>3.63</t>
-  </si>
-  <si>
-    <t>2.79</t>
-  </si>
-  <si>
-    <t>3.07</t>
-  </si>
-  <si>
-    <t>3.82</t>
-  </si>
-  <si>
-    <t>3.41</t>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>3.69</t>
+  </si>
+  <si>
+    <t>3.19</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>2.89</t>
-  </si>
-  <si>
-    <t>3.29</t>
-  </si>
-  <si>
-    <t>2.43</t>
-  </si>
-  <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>3.50</t>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>3.59</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.61</t>
   </si>
 </sst>
 </file>
@@ -729,16 +771,16 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -752,16 +794,16 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -772,19 +814,19 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -795,19 +837,19 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -818,19 +860,19 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -841,19 +883,19 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -867,16 +909,16 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -887,19 +929,19 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -913,16 +955,16 @@
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -936,16 +978,16 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -959,16 +1001,16 @@
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -982,16 +1024,16 @@
         <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1005,16 +1047,16 @@
         <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1025,19 +1067,19 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1048,19 +1090,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1071,19 +1113,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1097,16 +1139,16 @@
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1120,16 +1162,16 @@
         <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1140,19 +1182,19 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1163,19 +1205,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
